--- a/doc/cube_col_array_index_map.xlsx
+++ b/doc/cube_col_array_index_map.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ML_workspace\projects\RubiksCube\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ML_workspace\projects\RubiksCube\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="3x3 cube" sheetId="1" r:id="rId1"/>
     <sheet name="4x4 cube" sheetId="2" r:id="rId2"/>
+    <sheet name="edge_corner" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="103">
   <si>
     <t>0/0</t>
   </si>
@@ -195,12 +196,174 @@
   <si>
     <t>TOP SIDE</t>
   </si>
+  <si>
+    <t>edge mapping</t>
+  </si>
+  <si>
+    <t>e0/0</t>
+  </si>
+  <si>
+    <t>e0/1</t>
+  </si>
+  <si>
+    <t>e1/0</t>
+  </si>
+  <si>
+    <t>e1/1</t>
+  </si>
+  <si>
+    <t>e2/0</t>
+  </si>
+  <si>
+    <t>e2/1</t>
+  </si>
+  <si>
+    <t>e3/0</t>
+  </si>
+  <si>
+    <t>e3/1</t>
+  </si>
+  <si>
+    <t>e4/0</t>
+  </si>
+  <si>
+    <t>e4/1</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
+  <si>
+    <t>RIGHT</t>
+  </si>
+  <si>
+    <t>e6/0</t>
+  </si>
+  <si>
+    <t>e6/1</t>
+  </si>
+  <si>
+    <t>e5/0</t>
+  </si>
+  <si>
+    <t>e5/1</t>
+  </si>
+  <si>
+    <t>e7/0</t>
+  </si>
+  <si>
+    <t>e7/1</t>
+  </si>
+  <si>
+    <t>e8/0</t>
+  </si>
+  <si>
+    <t>e8/1</t>
+  </si>
+  <si>
+    <t>e9/0</t>
+  </si>
+  <si>
+    <t>e9/1</t>
+  </si>
+  <si>
+    <t>e10/0</t>
+  </si>
+  <si>
+    <t>e10/1</t>
+  </si>
+  <si>
+    <t>e11/1</t>
+  </si>
+  <si>
+    <t>corner mapping</t>
+  </si>
+  <si>
+    <t>c0/0</t>
+  </si>
+  <si>
+    <t>c0/2</t>
+  </si>
+  <si>
+    <t>c0/1</t>
+  </si>
+  <si>
+    <t>c1/0</t>
+  </si>
+  <si>
+    <t>c1/1</t>
+  </si>
+  <si>
+    <t>c1/2</t>
+  </si>
+  <si>
+    <t>c2/0</t>
+  </si>
+  <si>
+    <t>c2/1</t>
+  </si>
+  <si>
+    <t>c2/2</t>
+  </si>
+  <si>
+    <t>c3/0</t>
+  </si>
+  <si>
+    <t>c3/1</t>
+  </si>
+  <si>
+    <t>c3/2</t>
+  </si>
+  <si>
+    <t>c4/0</t>
+  </si>
+  <si>
+    <t>c4/1</t>
+  </si>
+  <si>
+    <t>c4/2</t>
+  </si>
+  <si>
+    <t>c5/0</t>
+  </si>
+  <si>
+    <t>c5/1</t>
+  </si>
+  <si>
+    <t>c5/2</t>
+  </si>
+  <si>
+    <t>c6/0</t>
+  </si>
+  <si>
+    <t>c6/1</t>
+  </si>
+  <si>
+    <t>c6/2</t>
+  </si>
+  <si>
+    <t>c7/0</t>
+  </si>
+  <si>
+    <t>c7/1</t>
+  </si>
+  <si>
+    <t>c7/2</t>
+  </si>
+  <si>
+    <t>Row0</t>
+  </si>
+  <si>
+    <t>Row2</t>
+  </si>
+  <si>
+    <t>e11/0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,8 +392,19 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +438,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -715,6 +895,180 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3215,8 +3569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB66" sqref="AB66"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3224,8 +3578,8 @@
     <col min="1" max="16384" width="5.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="122" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:36" s="180" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="178" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3274,11 +3628,11 @@
       <c r="C4" s="112"/>
       <c r="D4" s="112"/>
       <c r="E4" s="112"/>
-      <c r="F4" s="132" t="s">
+      <c r="F4" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="133"/>
-      <c r="H4" s="134"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="192"/>
       <c r="I4" s="112"/>
       <c r="J4" s="112"/>
       <c r="K4" s="112"/>
@@ -3310,9 +3664,9 @@
       <c r="C5" s="112"/>
       <c r="D5" s="112"/>
       <c r="E5" s="112"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="137"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="195"/>
       <c r="I5" s="112"/>
       <c r="J5" s="112"/>
       <c r="K5" s="112"/>
@@ -3344,9 +3698,9 @@
       <c r="C6" s="112"/>
       <c r="D6" s="112"/>
       <c r="E6" s="112"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="140"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="198"/>
       <c r="I6" s="112"/>
       <c r="J6" s="112"/>
       <c r="K6" s="112"/>
@@ -3414,35 +3768,35 @@
       <c r="AJ7" s="77"/>
     </row>
     <row r="8" spans="1:36" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="181" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="124"/>
-      <c r="D8" s="125"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="183"/>
       <c r="E8" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="168" t="s">
+      <c r="F8" s="226" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="169"/>
-      <c r="H8" s="170"/>
+      <c r="G8" s="227"/>
+      <c r="H8" s="228"/>
       <c r="I8" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="150" t="s">
+      <c r="J8" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="151"/>
-      <c r="L8" s="152"/>
+      <c r="K8" s="209"/>
+      <c r="L8" s="210"/>
       <c r="M8" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="159" t="s">
+      <c r="N8" s="217" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="160"/>
-      <c r="P8" s="161"/>
+      <c r="O8" s="218"/>
+      <c r="P8" s="219"/>
       <c r="T8" s="6"/>
       <c r="U8" s="82"/>
       <c r="V8" s="82"/>
@@ -3462,27 +3816,27 @@
       <c r="AJ8" s="77"/>
     </row>
     <row r="9" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="126"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="128"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="186"/>
       <c r="E9" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="171"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="173"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="230"/>
+      <c r="H9" s="231"/>
       <c r="I9" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="153"/>
-      <c r="K9" s="154"/>
-      <c r="L9" s="155"/>
+      <c r="J9" s="211"/>
+      <c r="K9" s="212"/>
+      <c r="L9" s="213"/>
       <c r="M9" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="162"/>
-      <c r="O9" s="163"/>
-      <c r="P9" s="164"/>
+      <c r="N9" s="220"/>
+      <c r="O9" s="221"/>
+      <c r="P9" s="222"/>
       <c r="T9" s="6"/>
       <c r="U9" s="82"/>
       <c r="V9" s="82"/>
@@ -3502,27 +3856,27 @@
       <c r="AJ9" s="77"/>
     </row>
     <row r="10" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="129"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="131"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="189"/>
       <c r="E10" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="174"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="176"/>
+      <c r="F10" s="232"/>
+      <c r="G10" s="233"/>
+      <c r="H10" s="234"/>
       <c r="I10" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="156"/>
-      <c r="K10" s="157"/>
-      <c r="L10" s="158"/>
+      <c r="J10" s="214"/>
+      <c r="K10" s="215"/>
+      <c r="L10" s="216"/>
       <c r="M10" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="165"/>
-      <c r="O10" s="166"/>
-      <c r="P10" s="167"/>
+      <c r="N10" s="223"/>
+      <c r="O10" s="224"/>
+      <c r="P10" s="225"/>
       <c r="T10" s="6"/>
       <c r="U10" s="82"/>
       <c r="V10" s="82"/>
@@ -3586,11 +3940,11 @@
       <c r="C12" s="112"/>
       <c r="D12" s="112"/>
       <c r="E12" s="112"/>
-      <c r="F12" s="141" t="s">
+      <c r="F12" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="142"/>
-      <c r="H12" s="143"/>
+      <c r="G12" s="200"/>
+      <c r="H12" s="201"/>
       <c r="I12" s="112"/>
       <c r="J12" s="112"/>
       <c r="K12" s="112"/>
@@ -3622,9 +3976,9 @@
       <c r="C13" s="112"/>
       <c r="D13" s="112"/>
       <c r="E13" s="112"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="146"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="203"/>
+      <c r="H13" s="204"/>
       <c r="I13" s="112"/>
       <c r="J13" s="112"/>
       <c r="K13" s="112"/>
@@ -3656,9 +4010,9 @@
       <c r="C14" s="112"/>
       <c r="D14" s="112"/>
       <c r="E14" s="112"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="149"/>
+      <c r="F14" s="205"/>
+      <c r="G14" s="206"/>
+      <c r="H14" s="207"/>
       <c r="I14" s="112"/>
       <c r="J14" s="112"/>
       <c r="K14" s="112"/>
@@ -3689,43 +4043,43 @@
       <c r="Y15" s="56"/>
     </row>
     <row r="18" spans="2:36" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="120" t="s">
+      <c r="B18" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="121"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="121"/>
-      <c r="Q18" s="121"/>
-      <c r="R18" s="121"/>
-      <c r="S18" s="121"/>
-      <c r="T18" s="121"/>
-      <c r="U18" s="121"/>
-      <c r="V18" s="121"/>
-      <c r="W18" s="121"/>
-      <c r="X18" s="121"/>
-      <c r="Y18" s="121"/>
-      <c r="Z18" s="121"/>
-      <c r="AA18" s="121"/>
-      <c r="AB18" s="121"/>
-      <c r="AC18" s="121"/>
-      <c r="AD18" s="121"/>
-      <c r="AE18" s="121"/>
-      <c r="AF18" s="121"/>
-      <c r="AG18" s="121"/>
-      <c r="AH18" s="121"/>
-      <c r="AI18" s="121"/>
-      <c r="AJ18" s="121"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="179"/>
+      <c r="K18" s="179"/>
+      <c r="L18" s="179"/>
+      <c r="M18" s="179"/>
+      <c r="N18" s="179"/>
+      <c r="O18" s="179"/>
+      <c r="P18" s="179"/>
+      <c r="Q18" s="179"/>
+      <c r="R18" s="179"/>
+      <c r="S18" s="179"/>
+      <c r="T18" s="179"/>
+      <c r="U18" s="179"/>
+      <c r="V18" s="179"/>
+      <c r="W18" s="179"/>
+      <c r="X18" s="179"/>
+      <c r="Y18" s="179"/>
+      <c r="Z18" s="179"/>
+      <c r="AA18" s="179"/>
+      <c r="AB18" s="179"/>
+      <c r="AC18" s="179"/>
+      <c r="AD18" s="179"/>
+      <c r="AE18" s="179"/>
+      <c r="AF18" s="179"/>
+      <c r="AG18" s="179"/>
+      <c r="AH18" s="179"/>
+      <c r="AI18" s="179"/>
+      <c r="AJ18" s="179"/>
     </row>
     <row r="19" spans="2:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="95" t="s">
@@ -5136,8 +5490,8 @@
     <col min="1" max="16384" width="6.7109375" style="118"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="178" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="177" t="s">
+    <row r="1" spans="1:28" s="236" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="235" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5864,4 +6218,2825 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="6.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" s="180" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="178" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U2" s="116"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
+    </row>
+    <row r="3" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="6"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="82"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="77"/>
+    </row>
+    <row r="4" spans="1:36" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="190" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="191"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="82"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="82"/>
+      <c r="AJ4" s="77"/>
+    </row>
+    <row r="5" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="82"/>
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="82"/>
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="82"/>
+      <c r="AJ5" s="77"/>
+    </row>
+    <row r="6" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="198"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="102"/>
+      <c r="Z6" s="102"/>
+      <c r="AA6" s="102"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="82"/>
+      <c r="AD6" s="82"/>
+      <c r="AE6" s="82"/>
+      <c r="AF6" s="82"/>
+      <c r="AG6" s="82"/>
+      <c r="AH6" s="82"/>
+      <c r="AI6" s="82"/>
+      <c r="AJ6" s="77"/>
+    </row>
+    <row r="7" spans="1:36" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="82"/>
+      <c r="AG7" s="82"/>
+      <c r="AH7" s="82"/>
+      <c r="AI7" s="82"/>
+      <c r="AJ7" s="77"/>
+    </row>
+    <row r="8" spans="1:36" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="181" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="182"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="226" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="227"/>
+      <c r="H8" s="228"/>
+      <c r="I8" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="208" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="209"/>
+      <c r="L8" s="210"/>
+      <c r="M8" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="217" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="218"/>
+      <c r="P8" s="219"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="102"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="82"/>
+      <c r="AI8" s="82"/>
+      <c r="AJ8" s="77"/>
+    </row>
+    <row r="9" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="184"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="229"/>
+      <c r="G9" s="230"/>
+      <c r="H9" s="231"/>
+      <c r="I9" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="211"/>
+      <c r="K9" s="212"/>
+      <c r="L9" s="213"/>
+      <c r="M9" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="220"/>
+      <c r="O9" s="221"/>
+      <c r="P9" s="222"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="102"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="102"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="82"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="77"/>
+    </row>
+    <row r="10" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="187"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="232"/>
+      <c r="G10" s="233"/>
+      <c r="H10" s="234"/>
+      <c r="I10" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="214"/>
+      <c r="K10" s="215"/>
+      <c r="L10" s="216"/>
+      <c r="M10" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="223"/>
+      <c r="O10" s="224"/>
+      <c r="P10" s="225"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="77"/>
+    </row>
+    <row r="11" spans="1:36" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="82"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="82"/>
+      <c r="AH11" s="82"/>
+      <c r="AI11" s="82"/>
+      <c r="AJ11" s="77"/>
+    </row>
+    <row r="12" spans="1:36" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="199" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="200"/>
+      <c r="H12" s="201"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="82"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="102"/>
+      <c r="AA12" s="102"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="82"/>
+      <c r="AE12" s="82"/>
+      <c r="AF12" s="82"/>
+      <c r="AG12" s="82"/>
+      <c r="AH12" s="82"/>
+      <c r="AI12" s="82"/>
+      <c r="AJ12" s="77"/>
+    </row>
+    <row r="13" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="203"/>
+      <c r="H13" s="204"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="82"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="82"/>
+      <c r="AE13" s="82"/>
+      <c r="AF13" s="82"/>
+      <c r="AG13" s="82"/>
+      <c r="AH13" s="82"/>
+      <c r="AI13" s="82"/>
+      <c r="AJ13" s="77"/>
+    </row>
+    <row r="14" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="205"/>
+      <c r="G14" s="206"/>
+      <c r="H14" s="207"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="82"/>
+      <c r="AH14" s="82"/>
+      <c r="AI14" s="82"/>
+      <c r="AJ14" s="77"/>
+    </row>
+    <row r="15" spans="1:36" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Y15" s="56"/>
+    </row>
+    <row r="18" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="157"/>
+      <c r="B18" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" s="157"/>
+      <c r="R18" s="157"/>
+      <c r="S18" s="157"/>
+      <c r="T18" s="157"/>
+      <c r="U18" s="158"/>
+      <c r="V18" s="157"/>
+      <c r="W18" s="157"/>
+      <c r="X18" s="157"/>
+      <c r="Y18" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z18" s="157"/>
+      <c r="AA18" s="157"/>
+      <c r="AB18" s="157"/>
+      <c r="AC18" s="157"/>
+      <c r="AD18" s="157"/>
+      <c r="AE18" s="157"/>
+      <c r="AF18" s="157"/>
+      <c r="AG18" s="157"/>
+      <c r="AH18" s="157"/>
+      <c r="AI18" s="157"/>
+      <c r="AJ18" s="157"/>
+    </row>
+    <row r="19" spans="1:36" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="157"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="157"/>
+      <c r="R19" s="157"/>
+      <c r="S19" s="157"/>
+      <c r="T19" s="157"/>
+      <c r="U19" s="112"/>
+      <c r="V19" s="112"/>
+      <c r="W19" s="112"/>
+      <c r="X19" s="112"/>
+      <c r="Y19" s="121"/>
+      <c r="Z19" s="122"/>
+      <c r="AA19" s="123"/>
+      <c r="AB19" s="112"/>
+      <c r="AC19" s="112"/>
+      <c r="AD19" s="112"/>
+      <c r="AE19" s="112"/>
+      <c r="AF19" s="112"/>
+      <c r="AG19" s="112"/>
+      <c r="AH19" s="112"/>
+      <c r="AI19" s="112"/>
+      <c r="AJ19" s="157"/>
+    </row>
+    <row r="20" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="157"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="112"/>
+      <c r="N20" s="112"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="112"/>
+      <c r="Q20" s="157"/>
+      <c r="R20" s="157"/>
+      <c r="S20" s="157"/>
+      <c r="T20" s="157"/>
+      <c r="U20" s="112"/>
+      <c r="V20" s="112"/>
+      <c r="W20" s="112"/>
+      <c r="X20" s="112"/>
+      <c r="Y20" s="124"/>
+      <c r="Z20" s="125"/>
+      <c r="AA20" s="126"/>
+      <c r="AB20" s="112"/>
+      <c r="AC20" s="112"/>
+      <c r="AD20" s="112"/>
+      <c r="AE20" s="112"/>
+      <c r="AF20" s="112"/>
+      <c r="AG20" s="112"/>
+      <c r="AH20" s="112"/>
+      <c r="AI20" s="112"/>
+      <c r="AJ20" s="157"/>
+    </row>
+    <row r="21" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="157"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="128" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="129"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="157"/>
+      <c r="R21" s="157"/>
+      <c r="S21" s="157"/>
+      <c r="T21" s="157"/>
+      <c r="U21" s="112"/>
+      <c r="V21" s="112"/>
+      <c r="W21" s="112"/>
+      <c r="X21" s="112"/>
+      <c r="Y21" s="127"/>
+      <c r="Z21" s="128" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA21" s="129"/>
+      <c r="AB21" s="112"/>
+      <c r="AC21" s="112"/>
+      <c r="AD21" s="112"/>
+      <c r="AE21" s="112"/>
+      <c r="AF21" s="112"/>
+      <c r="AG21" s="112"/>
+      <c r="AH21" s="112"/>
+      <c r="AI21" s="112"/>
+      <c r="AJ21" s="157"/>
+    </row>
+    <row r="22" spans="1:36" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="157"/>
+      <c r="B22" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="112"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="157"/>
+      <c r="R22" s="157"/>
+      <c r="S22" s="157"/>
+      <c r="T22" s="157"/>
+      <c r="U22" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="V22" s="112"/>
+      <c r="W22" s="112"/>
+      <c r="X22" s="112"/>
+      <c r="Y22" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z22" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA22" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB22" s="112"/>
+      <c r="AC22" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD22" s="112"/>
+      <c r="AE22" s="112"/>
+      <c r="AF22" s="112"/>
+      <c r="AG22" s="112"/>
+      <c r="AH22" s="112"/>
+      <c r="AI22" s="112"/>
+      <c r="AJ22" s="157"/>
+    </row>
+    <row r="23" spans="1:36" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="157"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="169"/>
+      <c r="G23" s="170" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="171"/>
+      <c r="I23" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="139"/>
+      <c r="K23" s="140"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="148"/>
+      <c r="O23" s="149"/>
+      <c r="P23" s="150"/>
+      <c r="Q23" s="157"/>
+      <c r="R23" s="157"/>
+      <c r="S23" s="157"/>
+      <c r="T23" s="157"/>
+      <c r="U23" s="139"/>
+      <c r="V23" s="140"/>
+      <c r="W23" s="141"/>
+      <c r="X23" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y23" s="148"/>
+      <c r="Z23" s="149" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA23" s="150"/>
+      <c r="AB23" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC23" s="120"/>
+      <c r="AD23" s="161"/>
+      <c r="AE23" s="162"/>
+      <c r="AF23" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG23" s="169"/>
+      <c r="AH23" s="170"/>
+      <c r="AI23" s="171"/>
+      <c r="AJ23" s="157"/>
+    </row>
+    <row r="24" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="157"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="165" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="172" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="173"/>
+      <c r="H24" s="174" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="142" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="143"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="151"/>
+      <c r="O24" s="152"/>
+      <c r="P24" s="153"/>
+      <c r="Q24" s="157"/>
+      <c r="R24" s="157"/>
+      <c r="S24" s="157"/>
+      <c r="T24" s="157"/>
+      <c r="U24" s="142"/>
+      <c r="V24" s="143"/>
+      <c r="W24" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="X24" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y24" s="151" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z24" s="152"/>
+      <c r="AA24" s="153" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB24" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC24" s="163" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD24" s="164"/>
+      <c r="AE24" s="165"/>
+      <c r="AF24" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG24" s="172"/>
+      <c r="AH24" s="173"/>
+      <c r="AI24" s="174"/>
+      <c r="AJ24" s="157"/>
+    </row>
+    <row r="25" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="157"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="175"/>
+      <c r="G25" s="176" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="177"/>
+      <c r="I25" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="145"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="154"/>
+      <c r="O25" s="155"/>
+      <c r="P25" s="156"/>
+      <c r="Q25" s="157"/>
+      <c r="R25" s="157"/>
+      <c r="S25" s="157"/>
+      <c r="T25" s="157"/>
+      <c r="U25" s="145"/>
+      <c r="V25" s="146"/>
+      <c r="W25" s="147"/>
+      <c r="X25" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y25" s="154"/>
+      <c r="Z25" s="155" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA25" s="156"/>
+      <c r="AB25" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC25" s="166"/>
+      <c r="AD25" s="167"/>
+      <c r="AE25" s="168"/>
+      <c r="AF25" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG25" s="175"/>
+      <c r="AH25" s="176"/>
+      <c r="AI25" s="177"/>
+      <c r="AJ25" s="157"/>
+    </row>
+    <row r="26" spans="1:36" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="157"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="157"/>
+      <c r="R26" s="157"/>
+      <c r="S26" s="157"/>
+      <c r="T26" s="157"/>
+      <c r="U26" s="112"/>
+      <c r="V26" s="112"/>
+      <c r="W26" s="112"/>
+      <c r="X26" s="112"/>
+      <c r="Y26" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z26" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA26" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB26" s="112"/>
+      <c r="AC26" s="112"/>
+      <c r="AD26" s="112"/>
+      <c r="AE26" s="112"/>
+      <c r="AF26" s="112"/>
+      <c r="AG26" s="112"/>
+      <c r="AH26" s="112"/>
+      <c r="AI26" s="112"/>
+      <c r="AJ26" s="157"/>
+    </row>
+    <row r="27" spans="1:36" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="157"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="131" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="132"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="157"/>
+      <c r="R27" s="157"/>
+      <c r="S27" s="157"/>
+      <c r="T27" s="157"/>
+      <c r="U27" s="112"/>
+      <c r="V27" s="112"/>
+      <c r="W27" s="112"/>
+      <c r="X27" s="112"/>
+      <c r="Y27" s="130"/>
+      <c r="Z27" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA27" s="132"/>
+      <c r="AB27" s="112"/>
+      <c r="AC27" s="112"/>
+      <c r="AD27" s="112"/>
+      <c r="AE27" s="112"/>
+      <c r="AF27" s="112"/>
+      <c r="AG27" s="112"/>
+      <c r="AH27" s="112"/>
+      <c r="AI27" s="112"/>
+      <c r="AJ27" s="157"/>
+    </row>
+    <row r="28" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="157"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="157"/>
+      <c r="R28" s="157"/>
+      <c r="S28" s="157"/>
+      <c r="T28" s="157"/>
+      <c r="U28" s="112"/>
+      <c r="V28" s="112"/>
+      <c r="W28" s="112"/>
+      <c r="X28" s="112"/>
+      <c r="Y28" s="133"/>
+      <c r="Z28" s="134"/>
+      <c r="AA28" s="135"/>
+      <c r="AB28" s="112"/>
+      <c r="AC28" s="112"/>
+      <c r="AD28" s="112"/>
+      <c r="AE28" s="112"/>
+      <c r="AF28" s="112"/>
+      <c r="AG28" s="112"/>
+      <c r="AH28" s="112"/>
+      <c r="AI28" s="112"/>
+      <c r="AJ28" s="157"/>
+    </row>
+    <row r="29" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="157"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="112"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="112"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="157"/>
+      <c r="R29" s="157"/>
+      <c r="S29" s="157"/>
+      <c r="T29" s="157"/>
+      <c r="U29" s="112"/>
+      <c r="V29" s="112"/>
+      <c r="W29" s="112"/>
+      <c r="X29" s="112"/>
+      <c r="Y29" s="136"/>
+      <c r="Z29" s="137"/>
+      <c r="AA29" s="138"/>
+      <c r="AB29" s="112"/>
+      <c r="AC29" s="112"/>
+      <c r="AD29" s="112"/>
+      <c r="AE29" s="112"/>
+      <c r="AF29" s="112"/>
+      <c r="AG29" s="112"/>
+      <c r="AH29" s="112"/>
+      <c r="AI29" s="112"/>
+      <c r="AJ29" s="157"/>
+    </row>
+    <row r="30" spans="1:36" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="157"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="157"/>
+      <c r="M30" s="157"/>
+      <c r="N30" s="157"/>
+      <c r="O30" s="157"/>
+      <c r="P30" s="157"/>
+      <c r="Q30" s="157"/>
+      <c r="R30" s="157"/>
+      <c r="S30" s="157"/>
+      <c r="T30" s="157"/>
+      <c r="U30" s="157"/>
+      <c r="V30" s="157"/>
+      <c r="W30" s="157"/>
+      <c r="X30" s="157"/>
+      <c r="Y30" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z30" s="157"/>
+      <c r="AA30" s="157"/>
+      <c r="AB30" s="157"/>
+      <c r="AC30" s="157"/>
+      <c r="AD30" s="157"/>
+      <c r="AE30" s="157"/>
+      <c r="AF30" s="157"/>
+      <c r="AG30" s="157"/>
+      <c r="AH30" s="157"/>
+      <c r="AI30" s="157"/>
+      <c r="AJ30" s="157"/>
+    </row>
+    <row r="31" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="157"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="157"/>
+      <c r="L31" s="157"/>
+      <c r="M31" s="157"/>
+      <c r="N31" s="157"/>
+      <c r="O31" s="157"/>
+      <c r="P31" s="157"/>
+      <c r="Q31" s="157"/>
+      <c r="R31" s="157"/>
+      <c r="S31" s="157"/>
+      <c r="T31" s="157"/>
+      <c r="U31" s="157"/>
+      <c r="V31" s="157"/>
+      <c r="W31" s="157"/>
+      <c r="X31" s="157"/>
+      <c r="Y31" s="159"/>
+      <c r="Z31" s="157"/>
+      <c r="AA31" s="157"/>
+      <c r="AB31" s="157"/>
+      <c r="AC31" s="157"/>
+      <c r="AD31" s="157"/>
+      <c r="AE31" s="157"/>
+      <c r="AF31" s="157"/>
+      <c r="AG31" s="157"/>
+      <c r="AH31" s="157"/>
+      <c r="AI31" s="157"/>
+      <c r="AJ31" s="157"/>
+    </row>
+    <row r="32" spans="1:36" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="157"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="112"/>
+      <c r="N32" s="112"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="112"/>
+      <c r="Q32" s="157"/>
+      <c r="R32" s="157"/>
+      <c r="S32" s="157"/>
+      <c r="T32" s="157"/>
+      <c r="U32" s="157"/>
+      <c r="V32" s="157"/>
+      <c r="W32" s="157"/>
+      <c r="X32" s="157"/>
+      <c r="Y32" s="157"/>
+      <c r="Z32" s="157"/>
+      <c r="AA32" s="157"/>
+      <c r="AB32" s="157"/>
+      <c r="AC32" s="157"/>
+      <c r="AD32" s="157"/>
+      <c r="AE32" s="157"/>
+      <c r="AF32" s="157"/>
+      <c r="AG32" s="157"/>
+      <c r="AH32" s="157"/>
+      <c r="AI32" s="157"/>
+      <c r="AJ32" s="157"/>
+    </row>
+    <row r="33" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="157"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="124" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="125"/>
+      <c r="H33" s="126" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="112"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="112"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="112"/>
+      <c r="N33" s="112"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="112"/>
+      <c r="Q33" s="157"/>
+      <c r="R33" s="157"/>
+      <c r="S33" s="157"/>
+      <c r="T33" s="157"/>
+      <c r="U33" s="157"/>
+      <c r="V33" s="157"/>
+      <c r="W33" s="157"/>
+      <c r="X33" s="157"/>
+      <c r="Y33" s="157"/>
+      <c r="Z33" s="157"/>
+      <c r="AA33" s="157"/>
+      <c r="AB33" s="157"/>
+      <c r="AC33" s="157"/>
+      <c r="AD33" s="157"/>
+      <c r="AE33" s="157"/>
+      <c r="AF33" s="157"/>
+      <c r="AG33" s="157"/>
+      <c r="AH33" s="157"/>
+      <c r="AI33" s="157"/>
+      <c r="AJ33" s="157"/>
+    </row>
+    <row r="34" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="157"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="127"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="129"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="112"/>
+      <c r="M34" s="112"/>
+      <c r="N34" s="112"/>
+      <c r="O34" s="112"/>
+      <c r="P34" s="112"/>
+      <c r="Q34" s="157"/>
+      <c r="R34" s="157"/>
+      <c r="S34" s="157"/>
+      <c r="T34" s="157"/>
+      <c r="U34" s="157"/>
+      <c r="V34" s="157"/>
+      <c r="W34" s="157"/>
+      <c r="X34" s="157"/>
+      <c r="Y34" s="157"/>
+      <c r="Z34" s="157"/>
+      <c r="AA34" s="157"/>
+      <c r="AB34" s="157"/>
+      <c r="AC34" s="157"/>
+      <c r="AD34" s="157"/>
+      <c r="AE34" s="157"/>
+      <c r="AF34" s="157"/>
+      <c r="AG34" s="157"/>
+      <c r="AH34" s="157"/>
+      <c r="AI34" s="157"/>
+      <c r="AJ34" s="157"/>
+    </row>
+    <row r="35" spans="1:36" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="157"/>
+      <c r="B35" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="112"/>
+      <c r="H35" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="112"/>
+      <c r="J35" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="K35" s="112"/>
+      <c r="L35" s="112"/>
+      <c r="M35" s="112"/>
+      <c r="N35" s="112"/>
+      <c r="O35" s="112"/>
+      <c r="P35" s="112"/>
+      <c r="Q35" s="157"/>
+      <c r="R35" s="157"/>
+      <c r="S35" s="157"/>
+      <c r="T35" s="157"/>
+      <c r="U35" s="158"/>
+      <c r="V35" s="157"/>
+      <c r="W35" s="157"/>
+      <c r="X35" s="157"/>
+      <c r="Y35" s="157"/>
+      <c r="Z35" s="157"/>
+      <c r="AA35" s="157"/>
+      <c r="AB35" s="157"/>
+      <c r="AC35" s="157"/>
+      <c r="AD35" s="157"/>
+      <c r="AE35" s="157"/>
+      <c r="AF35" s="157"/>
+      <c r="AG35" s="157"/>
+      <c r="AH35" s="157"/>
+      <c r="AI35" s="157"/>
+      <c r="AJ35" s="157"/>
+    </row>
+    <row r="36" spans="1:36" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="157"/>
+      <c r="B36" s="120"/>
+      <c r="C36" s="161" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="162"/>
+      <c r="E36" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="169"/>
+      <c r="G36" s="170"/>
+      <c r="H36" s="171"/>
+      <c r="I36" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="139"/>
+      <c r="K36" s="140" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="141"/>
+      <c r="M36" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="N36" s="148"/>
+      <c r="O36" s="149"/>
+      <c r="P36" s="150"/>
+      <c r="Q36" s="157"/>
+      <c r="R36" s="157"/>
+      <c r="S36" s="157"/>
+      <c r="T36" s="157"/>
+      <c r="U36" s="157"/>
+      <c r="V36" s="157"/>
+      <c r="W36" s="157"/>
+      <c r="X36" s="157"/>
+      <c r="Y36" s="159"/>
+      <c r="Z36" s="157"/>
+      <c r="AA36" s="157"/>
+      <c r="AB36" s="157"/>
+      <c r="AC36" s="157"/>
+      <c r="AD36" s="157"/>
+      <c r="AE36" s="157"/>
+      <c r="AF36" s="157"/>
+      <c r="AG36" s="157"/>
+      <c r="AH36" s="157"/>
+      <c r="AI36" s="157"/>
+      <c r="AJ36" s="157"/>
+    </row>
+    <row r="37" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="157"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="165"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="173"/>
+      <c r="H37" s="174"/>
+      <c r="I37" s="112"/>
+      <c r="J37" s="142"/>
+      <c r="K37" s="143"/>
+      <c r="L37" s="144"/>
+      <c r="M37" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37" s="151"/>
+      <c r="O37" s="152"/>
+      <c r="P37" s="153"/>
+      <c r="Q37" s="157"/>
+      <c r="R37" s="157"/>
+      <c r="S37" s="157"/>
+      <c r="T37" s="157"/>
+      <c r="U37" s="157"/>
+      <c r="V37" s="157"/>
+      <c r="W37" s="157"/>
+      <c r="X37" s="157"/>
+      <c r="Y37" s="157"/>
+      <c r="Z37" s="157"/>
+      <c r="AA37" s="157"/>
+      <c r="AB37" s="157"/>
+      <c r="AC37" s="157"/>
+      <c r="AD37" s="157"/>
+      <c r="AE37" s="157"/>
+      <c r="AF37" s="157"/>
+      <c r="AG37" s="157"/>
+      <c r="AH37" s="157"/>
+      <c r="AI37" s="157"/>
+      <c r="AJ37" s="157"/>
+    </row>
+    <row r="38" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="157"/>
+      <c r="B38" s="166"/>
+      <c r="C38" s="167" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="168"/>
+      <c r="E38" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="175"/>
+      <c r="G38" s="176"/>
+      <c r="H38" s="177"/>
+      <c r="I38" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="145"/>
+      <c r="K38" s="146" t="s">
+        <v>64</v>
+      </c>
+      <c r="L38" s="147"/>
+      <c r="M38" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="N38" s="154"/>
+      <c r="O38" s="155"/>
+      <c r="P38" s="156"/>
+      <c r="Q38" s="157"/>
+      <c r="R38" s="157"/>
+      <c r="S38" s="157"/>
+      <c r="T38" s="157"/>
+      <c r="U38" s="157"/>
+      <c r="V38" s="157"/>
+      <c r="W38" s="157"/>
+      <c r="X38" s="157"/>
+      <c r="Y38" s="157"/>
+      <c r="Z38" s="157"/>
+      <c r="AA38" s="157"/>
+      <c r="AB38" s="157"/>
+      <c r="AC38" s="157"/>
+      <c r="AD38" s="157"/>
+      <c r="AE38" s="157"/>
+      <c r="AF38" s="157"/>
+      <c r="AG38" s="157"/>
+      <c r="AH38" s="157"/>
+      <c r="AI38" s="157"/>
+      <c r="AJ38" s="157"/>
+    </row>
+    <row r="39" spans="1:36" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="157"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="112"/>
+      <c r="H39" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="112"/>
+      <c r="J39" s="112"/>
+      <c r="K39" s="112"/>
+      <c r="L39" s="112"/>
+      <c r="M39" s="112"/>
+      <c r="N39" s="112"/>
+      <c r="O39" s="112"/>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="157"/>
+      <c r="R39" s="157"/>
+      <c r="S39" s="157"/>
+      <c r="T39" s="157"/>
+      <c r="U39" s="157"/>
+      <c r="V39" s="157"/>
+      <c r="W39" s="157"/>
+      <c r="X39" s="157"/>
+      <c r="Y39" s="160"/>
+      <c r="Z39" s="160"/>
+      <c r="AA39" s="160"/>
+      <c r="AB39" s="157"/>
+      <c r="AC39" s="160"/>
+      <c r="AD39" s="160"/>
+      <c r="AE39" s="160"/>
+      <c r="AF39" s="157"/>
+      <c r="AG39" s="157"/>
+      <c r="AH39" s="157"/>
+      <c r="AI39" s="157"/>
+      <c r="AJ39" s="157"/>
+    </row>
+    <row r="40" spans="1:36" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="157"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="132"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="112"/>
+      <c r="K40" s="112"/>
+      <c r="L40" s="112"/>
+      <c r="M40" s="112"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="112"/>
+      <c r="P40" s="112"/>
+      <c r="Q40" s="157"/>
+      <c r="R40" s="157"/>
+      <c r="S40" s="157"/>
+      <c r="T40" s="157"/>
+      <c r="U40" s="159"/>
+      <c r="V40" s="157"/>
+      <c r="W40" s="157"/>
+      <c r="X40" s="157"/>
+      <c r="Y40" s="157"/>
+      <c r="Z40" s="157"/>
+      <c r="AA40" s="157"/>
+      <c r="AB40" s="157"/>
+      <c r="AC40" s="159"/>
+      <c r="AD40" s="157"/>
+      <c r="AE40" s="157"/>
+      <c r="AF40" s="157"/>
+      <c r="AG40" s="157"/>
+      <c r="AH40" s="157"/>
+      <c r="AI40" s="157"/>
+      <c r="AJ40" s="157"/>
+    </row>
+    <row r="41" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="157"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="133" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="134"/>
+      <c r="H41" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="112"/>
+      <c r="J41" s="112"/>
+      <c r="K41" s="112"/>
+      <c r="L41" s="112"/>
+      <c r="M41" s="112"/>
+      <c r="N41" s="112"/>
+      <c r="O41" s="112"/>
+      <c r="P41" s="112"/>
+      <c r="Q41" s="157"/>
+      <c r="R41" s="157"/>
+      <c r="S41" s="157"/>
+      <c r="T41" s="157"/>
+      <c r="U41" s="157"/>
+      <c r="V41" s="157"/>
+      <c r="W41" s="160"/>
+      <c r="X41" s="157"/>
+      <c r="Y41" s="157"/>
+      <c r="Z41" s="157"/>
+      <c r="AA41" s="157"/>
+      <c r="AB41" s="157"/>
+      <c r="AC41" s="160"/>
+      <c r="AD41" s="157"/>
+      <c r="AE41" s="157"/>
+      <c r="AF41" s="157"/>
+      <c r="AG41" s="157"/>
+      <c r="AH41" s="157"/>
+      <c r="AI41" s="157"/>
+      <c r="AJ41" s="157"/>
+    </row>
+    <row r="42" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="157"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="138"/>
+      <c r="I42" s="112"/>
+      <c r="J42" s="112"/>
+      <c r="K42" s="112"/>
+      <c r="L42" s="112"/>
+      <c r="M42" s="112"/>
+      <c r="N42" s="112"/>
+      <c r="O42" s="112"/>
+      <c r="P42" s="112"/>
+      <c r="Q42" s="157"/>
+      <c r="R42" s="157"/>
+      <c r="S42" s="157"/>
+      <c r="T42" s="157"/>
+      <c r="U42" s="157"/>
+      <c r="V42" s="157"/>
+      <c r="W42" s="160"/>
+      <c r="X42" s="157"/>
+      <c r="Y42" s="157"/>
+      <c r="Z42" s="157"/>
+      <c r="AA42" s="157"/>
+      <c r="AB42" s="157"/>
+      <c r="AC42" s="160"/>
+      <c r="AD42" s="157"/>
+      <c r="AE42" s="157"/>
+      <c r="AF42" s="157"/>
+      <c r="AG42" s="157"/>
+      <c r="AH42" s="157"/>
+      <c r="AI42" s="157"/>
+      <c r="AJ42" s="157"/>
+    </row>
+    <row r="43" spans="1:36" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="157"/>
+      <c r="B43" s="157"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="160"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="157"/>
+      <c r="G43" s="157"/>
+      <c r="H43" s="157"/>
+      <c r="I43" s="157"/>
+      <c r="J43" s="160"/>
+      <c r="K43" s="157"/>
+      <c r="L43" s="157"/>
+      <c r="M43" s="157"/>
+      <c r="N43" s="157"/>
+      <c r="O43" s="157"/>
+      <c r="P43" s="157"/>
+      <c r="Q43" s="157"/>
+      <c r="R43" s="157"/>
+      <c r="S43" s="157"/>
+      <c r="T43" s="157"/>
+      <c r="U43" s="157"/>
+      <c r="V43" s="157"/>
+      <c r="W43" s="160"/>
+      <c r="X43" s="157"/>
+      <c r="Y43" s="157"/>
+      <c r="Z43" s="157"/>
+      <c r="AA43" s="157"/>
+      <c r="AB43" s="157"/>
+      <c r="AC43" s="160"/>
+      <c r="AD43" s="157"/>
+      <c r="AE43" s="157"/>
+      <c r="AF43" s="157"/>
+      <c r="AG43" s="157"/>
+      <c r="AH43" s="157"/>
+      <c r="AI43" s="157"/>
+      <c r="AJ43" s="157"/>
+    </row>
+    <row r="44" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="157"/>
+      <c r="B44" s="157"/>
+      <c r="C44" s="157"/>
+      <c r="D44" s="157"/>
+      <c r="E44" s="157"/>
+      <c r="F44" s="157"/>
+      <c r="G44" s="157"/>
+      <c r="H44" s="157"/>
+      <c r="I44" s="157"/>
+      <c r="J44" s="157"/>
+      <c r="K44" s="157"/>
+      <c r="L44" s="157"/>
+      <c r="M44" s="157"/>
+      <c r="N44" s="157"/>
+      <c r="O44" s="157"/>
+      <c r="P44" s="157"/>
+      <c r="Q44" s="157"/>
+      <c r="R44" s="157"/>
+      <c r="S44" s="157"/>
+      <c r="T44" s="157"/>
+      <c r="U44" s="157"/>
+      <c r="V44" s="157"/>
+      <c r="W44" s="157"/>
+      <c r="X44" s="157"/>
+      <c r="Y44" s="157"/>
+      <c r="Z44" s="157"/>
+      <c r="AA44" s="157"/>
+      <c r="AB44" s="157"/>
+      <c r="AC44" s="157"/>
+      <c r="AD44" s="157"/>
+      <c r="AE44" s="157"/>
+      <c r="AF44" s="157"/>
+      <c r="AG44" s="157"/>
+      <c r="AH44" s="157"/>
+      <c r="AI44" s="157"/>
+      <c r="AJ44" s="157"/>
+    </row>
+    <row r="45" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="157"/>
+      <c r="B45" s="157"/>
+      <c r="C45" s="157"/>
+      <c r="D45" s="157"/>
+      <c r="E45" s="157"/>
+      <c r="F45" s="160"/>
+      <c r="G45" s="160"/>
+      <c r="H45" s="160"/>
+      <c r="I45" s="157"/>
+      <c r="J45" s="157"/>
+      <c r="K45" s="157"/>
+      <c r="L45" s="157"/>
+      <c r="M45" s="157"/>
+      <c r="N45" s="157"/>
+      <c r="O45" s="157"/>
+      <c r="P45" s="157"/>
+      <c r="Q45" s="157"/>
+      <c r="R45" s="157"/>
+      <c r="S45" s="157"/>
+      <c r="T45" s="157"/>
+      <c r="U45" s="157"/>
+      <c r="V45" s="157"/>
+      <c r="W45" s="157"/>
+      <c r="X45" s="157"/>
+      <c r="Y45" s="160"/>
+      <c r="Z45" s="160"/>
+      <c r="AA45" s="160"/>
+      <c r="AB45" s="157"/>
+      <c r="AC45" s="157"/>
+      <c r="AD45" s="157"/>
+      <c r="AE45" s="160"/>
+      <c r="AF45" s="160"/>
+      <c r="AG45" s="160"/>
+      <c r="AH45" s="157"/>
+      <c r="AI45" s="157"/>
+      <c r="AJ45" s="157"/>
+    </row>
+    <row r="46" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="157"/>
+      <c r="B46" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q46" s="157"/>
+      <c r="R46" s="157"/>
+      <c r="S46" s="157"/>
+      <c r="T46" s="158"/>
+      <c r="U46" s="157"/>
+      <c r="V46" s="157"/>
+      <c r="W46" s="157"/>
+      <c r="X46" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y46" s="157"/>
+      <c r="Z46" s="157"/>
+      <c r="AA46" s="157"/>
+      <c r="AB46" s="157"/>
+      <c r="AC46" s="157"/>
+      <c r="AD46" s="157"/>
+      <c r="AE46" s="157"/>
+      <c r="AF46" s="157"/>
+      <c r="AG46" s="157"/>
+      <c r="AH46" s="157"/>
+      <c r="AI46" s="157"/>
+      <c r="AJ46" s="157"/>
+    </row>
+    <row r="47" spans="1:36" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="157"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="122"/>
+      <c r="H47" s="123"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="112"/>
+      <c r="K47" s="112"/>
+      <c r="L47" s="112"/>
+      <c r="M47" s="112"/>
+      <c r="N47" s="112"/>
+      <c r="O47" s="112"/>
+      <c r="P47" s="112"/>
+      <c r="Q47" s="157"/>
+      <c r="R47" s="157"/>
+      <c r="S47" s="157"/>
+      <c r="T47" s="112"/>
+      <c r="U47" s="112"/>
+      <c r="V47" s="112"/>
+      <c r="W47" s="112"/>
+      <c r="X47" s="121"/>
+      <c r="Y47" s="122"/>
+      <c r="Z47" s="123"/>
+      <c r="AA47" s="112"/>
+      <c r="AB47" s="112"/>
+      <c r="AC47" s="112"/>
+      <c r="AD47" s="112"/>
+      <c r="AE47" s="112"/>
+      <c r="AF47" s="112"/>
+      <c r="AG47" s="112"/>
+      <c r="AH47" s="112"/>
+      <c r="AI47" s="157"/>
+      <c r="AJ47" s="157"/>
+    </row>
+    <row r="48" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="157"/>
+      <c r="B48" s="112"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="124"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="126"/>
+      <c r="I48" s="112"/>
+      <c r="J48" s="112"/>
+      <c r="K48" s="112"/>
+      <c r="L48" s="112"/>
+      <c r="M48" s="112"/>
+      <c r="N48" s="112"/>
+      <c r="O48" s="112"/>
+      <c r="P48" s="112"/>
+      <c r="Q48" s="157"/>
+      <c r="R48" s="157"/>
+      <c r="S48" s="157"/>
+      <c r="T48" s="112"/>
+      <c r="U48" s="112"/>
+      <c r="V48" s="112"/>
+      <c r="W48" s="112"/>
+      <c r="X48" s="124"/>
+      <c r="Y48" s="125"/>
+      <c r="Z48" s="126"/>
+      <c r="AA48" s="112"/>
+      <c r="AB48" s="112"/>
+      <c r="AC48" s="112"/>
+      <c r="AD48" s="112"/>
+      <c r="AE48" s="112"/>
+      <c r="AF48" s="112"/>
+      <c r="AG48" s="112"/>
+      <c r="AH48" s="112"/>
+      <c r="AI48" s="157"/>
+      <c r="AJ48" s="157"/>
+    </row>
+    <row r="49" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="157"/>
+      <c r="B49" s="112"/>
+      <c r="C49" s="112"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="127" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="128"/>
+      <c r="H49" s="129" t="s">
+        <v>80</v>
+      </c>
+      <c r="I49" s="112"/>
+      <c r="J49" s="112"/>
+      <c r="K49" s="112"/>
+      <c r="L49" s="112"/>
+      <c r="M49" s="112"/>
+      <c r="N49" s="112"/>
+      <c r="O49" s="112"/>
+      <c r="P49" s="112"/>
+      <c r="Q49" s="157"/>
+      <c r="R49" s="157"/>
+      <c r="S49" s="157"/>
+      <c r="T49" s="112"/>
+      <c r="U49" s="112"/>
+      <c r="V49" s="112"/>
+      <c r="W49" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="X49" s="127" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y49" s="128"/>
+      <c r="Z49" s="129" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA49" s="112"/>
+      <c r="AB49" s="112"/>
+      <c r="AC49" s="112"/>
+      <c r="AD49" s="112"/>
+      <c r="AE49" s="112"/>
+      <c r="AF49" s="112"/>
+      <c r="AG49" s="112"/>
+      <c r="AH49" s="112"/>
+      <c r="AI49" s="157"/>
+      <c r="AJ49" s="157"/>
+    </row>
+    <row r="50" spans="1:36" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="157"/>
+      <c r="B50" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="112"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="112"/>
+      <c r="F50" s="112"/>
+      <c r="G50" s="112"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="112"/>
+      <c r="J50" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="K50" s="112"/>
+      <c r="L50" s="112"/>
+      <c r="M50" s="112"/>
+      <c r="N50" s="112"/>
+      <c r="O50" s="112"/>
+      <c r="P50" s="112"/>
+      <c r="Q50" s="157"/>
+      <c r="R50" s="157"/>
+      <c r="S50" s="157"/>
+      <c r="T50" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="U50" s="112"/>
+      <c r="V50" s="112"/>
+      <c r="W50" s="112"/>
+      <c r="X50" s="112"/>
+      <c r="Y50" s="112"/>
+      <c r="Z50" s="112"/>
+      <c r="AA50" s="112"/>
+      <c r="AB50" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC50" s="112"/>
+      <c r="AD50" s="112"/>
+      <c r="AE50" s="112"/>
+      <c r="AF50" s="112"/>
+      <c r="AG50" s="112"/>
+      <c r="AH50" s="112"/>
+      <c r="AI50" s="157"/>
+      <c r="AJ50" s="157"/>
+    </row>
+    <row r="51" spans="1:36" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="157"/>
+      <c r="B51" s="120"/>
+      <c r="C51" s="161"/>
+      <c r="D51" s="162" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="112"/>
+      <c r="F51" s="169" t="s">
+        <v>76</v>
+      </c>
+      <c r="G51" s="170"/>
+      <c r="H51" s="171" t="s">
+        <v>79</v>
+      </c>
+      <c r="I51" s="112"/>
+      <c r="J51" s="139" t="s">
+        <v>81</v>
+      </c>
+      <c r="K51" s="140"/>
+      <c r="L51" s="141"/>
+      <c r="M51" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="N51" s="148"/>
+      <c r="O51" s="149"/>
+      <c r="P51" s="150"/>
+      <c r="Q51" s="157"/>
+      <c r="R51" s="157"/>
+      <c r="S51" s="157"/>
+      <c r="T51" s="139"/>
+      <c r="U51" s="140"/>
+      <c r="V51" s="141" t="s">
+        <v>90</v>
+      </c>
+      <c r="W51" s="112"/>
+      <c r="X51" s="148" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y51" s="149"/>
+      <c r="Z51" s="150" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA51" s="112"/>
+      <c r="AB51" s="120" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC51" s="161"/>
+      <c r="AD51" s="162"/>
+      <c r="AE51" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF51" s="169"/>
+      <c r="AG51" s="170"/>
+      <c r="AH51" s="171"/>
+      <c r="AI51" s="157"/>
+      <c r="AJ51" s="157"/>
+    </row>
+    <row r="52" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="157"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="165"/>
+      <c r="E52" s="112"/>
+      <c r="F52" s="172"/>
+      <c r="G52" s="173"/>
+      <c r="H52" s="174"/>
+      <c r="I52" s="112"/>
+      <c r="J52" s="142"/>
+      <c r="K52" s="143"/>
+      <c r="L52" s="144"/>
+      <c r="M52" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="N52" s="151"/>
+      <c r="O52" s="152"/>
+      <c r="P52" s="153"/>
+      <c r="Q52" s="157"/>
+      <c r="R52" s="157"/>
+      <c r="S52" s="157"/>
+      <c r="T52" s="142"/>
+      <c r="U52" s="143"/>
+      <c r="V52" s="144"/>
+      <c r="W52" s="112"/>
+      <c r="X52" s="151"/>
+      <c r="Y52" s="152"/>
+      <c r="Z52" s="153"/>
+      <c r="AA52" s="112"/>
+      <c r="AB52" s="163"/>
+      <c r="AC52" s="164"/>
+      <c r="AD52" s="165"/>
+      <c r="AE52" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF52" s="172"/>
+      <c r="AG52" s="173"/>
+      <c r="AH52" s="174"/>
+      <c r="AI52" s="157"/>
+      <c r="AJ52" s="157"/>
+    </row>
+    <row r="53" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="157"/>
+      <c r="B53" s="166"/>
+      <c r="C53" s="167"/>
+      <c r="D53" s="168" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="112"/>
+      <c r="F53" s="175" t="s">
+        <v>85</v>
+      </c>
+      <c r="G53" s="176"/>
+      <c r="H53" s="177" t="s">
+        <v>82</v>
+      </c>
+      <c r="I53" s="112"/>
+      <c r="J53" s="145" t="s">
+        <v>84</v>
+      </c>
+      <c r="K53" s="146"/>
+      <c r="L53" s="147"/>
+      <c r="M53" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="N53" s="154"/>
+      <c r="O53" s="155"/>
+      <c r="P53" s="156"/>
+      <c r="Q53" s="157"/>
+      <c r="R53" s="157"/>
+      <c r="S53" s="157"/>
+      <c r="T53" s="145"/>
+      <c r="U53" s="146"/>
+      <c r="V53" s="147" t="s">
+        <v>99</v>
+      </c>
+      <c r="W53" s="112"/>
+      <c r="X53" s="154" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y53" s="155"/>
+      <c r="Z53" s="156" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA53" s="112"/>
+      <c r="AB53" s="166" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC53" s="167"/>
+      <c r="AD53" s="168"/>
+      <c r="AE53" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF53" s="175"/>
+      <c r="AG53" s="176"/>
+      <c r="AH53" s="177"/>
+      <c r="AI53" s="157"/>
+      <c r="AJ53" s="157"/>
+    </row>
+    <row r="54" spans="1:36" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="157"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="112"/>
+      <c r="G54" s="112"/>
+      <c r="H54" s="112"/>
+      <c r="I54" s="112"/>
+      <c r="J54" s="112"/>
+      <c r="K54" s="112"/>
+      <c r="L54" s="112"/>
+      <c r="M54" s="112"/>
+      <c r="N54" s="112"/>
+      <c r="O54" s="112"/>
+      <c r="P54" s="112"/>
+      <c r="Q54" s="157"/>
+      <c r="R54" s="157"/>
+      <c r="S54" s="157"/>
+      <c r="T54" s="112"/>
+      <c r="U54" s="112"/>
+      <c r="V54" s="112"/>
+      <c r="W54" s="112"/>
+      <c r="X54" s="112"/>
+      <c r="Y54" s="112"/>
+      <c r="Z54" s="112"/>
+      <c r="AA54" s="112"/>
+      <c r="AB54" s="112"/>
+      <c r="AC54" s="112"/>
+      <c r="AD54" s="112"/>
+      <c r="AE54" s="112"/>
+      <c r="AF54" s="112"/>
+      <c r="AG54" s="112"/>
+      <c r="AH54" s="112"/>
+      <c r="AI54" s="157"/>
+      <c r="AJ54" s="157"/>
+    </row>
+    <row r="55" spans="1:36" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="157"/>
+      <c r="B55" s="112"/>
+      <c r="C55" s="112"/>
+      <c r="D55" s="112"/>
+      <c r="E55" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="G55" s="131"/>
+      <c r="H55" s="132" t="s">
+        <v>83</v>
+      </c>
+      <c r="I55" s="112"/>
+      <c r="J55" s="112"/>
+      <c r="K55" s="112"/>
+      <c r="L55" s="112"/>
+      <c r="M55" s="112"/>
+      <c r="N55" s="112"/>
+      <c r="O55" s="112"/>
+      <c r="P55" s="112"/>
+      <c r="Q55" s="157"/>
+      <c r="R55" s="157"/>
+      <c r="S55" s="157"/>
+      <c r="T55" s="112"/>
+      <c r="U55" s="112"/>
+      <c r="V55" s="112"/>
+      <c r="W55" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="X55" s="130" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y55" s="131"/>
+      <c r="Z55" s="132" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA55" s="112"/>
+      <c r="AB55" s="112"/>
+      <c r="AC55" s="112"/>
+      <c r="AD55" s="112"/>
+      <c r="AE55" s="112"/>
+      <c r="AF55" s="112"/>
+      <c r="AG55" s="112"/>
+      <c r="AH55" s="112"/>
+      <c r="AI55" s="157"/>
+      <c r="AJ55" s="157"/>
+    </row>
+    <row r="56" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="157"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="112"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="133"/>
+      <c r="G56" s="134"/>
+      <c r="H56" s="135"/>
+      <c r="I56" s="112"/>
+      <c r="J56" s="112"/>
+      <c r="K56" s="112"/>
+      <c r="L56" s="112"/>
+      <c r="M56" s="112"/>
+      <c r="N56" s="112"/>
+      <c r="O56" s="112"/>
+      <c r="P56" s="112"/>
+      <c r="Q56" s="157"/>
+      <c r="R56" s="157"/>
+      <c r="S56" s="157"/>
+      <c r="T56" s="112"/>
+      <c r="U56" s="112"/>
+      <c r="V56" s="112"/>
+      <c r="W56" s="112"/>
+      <c r="X56" s="133"/>
+      <c r="Y56" s="134"/>
+      <c r="Z56" s="135"/>
+      <c r="AA56" s="112"/>
+      <c r="AB56" s="112"/>
+      <c r="AC56" s="112"/>
+      <c r="AD56" s="112"/>
+      <c r="AE56" s="112"/>
+      <c r="AF56" s="112"/>
+      <c r="AG56" s="112"/>
+      <c r="AH56" s="112"/>
+      <c r="AI56" s="157"/>
+      <c r="AJ56" s="157"/>
+    </row>
+    <row r="57" spans="1:36" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="157"/>
+      <c r="B57" s="112"/>
+      <c r="C57" s="112"/>
+      <c r="D57" s="112"/>
+      <c r="E57" s="112"/>
+      <c r="F57" s="136"/>
+      <c r="G57" s="137"/>
+      <c r="H57" s="138"/>
+      <c r="I57" s="112"/>
+      <c r="J57" s="112"/>
+      <c r="K57" s="112"/>
+      <c r="L57" s="112"/>
+      <c r="M57" s="112"/>
+      <c r="N57" s="112"/>
+      <c r="O57" s="112"/>
+      <c r="P57" s="112"/>
+      <c r="Q57" s="157"/>
+      <c r="R57" s="157"/>
+      <c r="S57" s="157"/>
+      <c r="T57" s="112"/>
+      <c r="U57" s="112"/>
+      <c r="V57" s="112"/>
+      <c r="W57" s="112"/>
+      <c r="X57" s="136"/>
+      <c r="Y57" s="137"/>
+      <c r="Z57" s="138"/>
+      <c r="AA57" s="112"/>
+      <c r="AB57" s="112"/>
+      <c r="AC57" s="112"/>
+      <c r="AD57" s="112"/>
+      <c r="AE57" s="112"/>
+      <c r="AF57" s="112"/>
+      <c r="AG57" s="112"/>
+      <c r="AH57" s="112"/>
+      <c r="AI57" s="157"/>
+      <c r="AJ57" s="157"/>
+    </row>
+    <row r="58" spans="1:36" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="157"/>
+      <c r="B58" s="157"/>
+      <c r="C58" s="157"/>
+      <c r="D58" s="160"/>
+      <c r="E58" s="157"/>
+      <c r="F58" s="157"/>
+      <c r="G58" s="157"/>
+      <c r="H58" s="157"/>
+      <c r="I58" s="157"/>
+      <c r="J58" s="160"/>
+      <c r="K58" s="157"/>
+      <c r="L58" s="157"/>
+      <c r="M58" s="157"/>
+      <c r="N58" s="157"/>
+      <c r="O58" s="157"/>
+      <c r="P58" s="157"/>
+      <c r="Q58" s="157"/>
+      <c r="R58" s="157"/>
+      <c r="S58" s="157"/>
+      <c r="T58" s="157"/>
+      <c r="U58" s="157"/>
+      <c r="V58" s="157"/>
+      <c r="W58" s="157"/>
+      <c r="X58" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y58" s="157"/>
+      <c r="Z58" s="157"/>
+      <c r="AA58" s="157"/>
+      <c r="AB58" s="157"/>
+      <c r="AC58" s="157"/>
+      <c r="AD58" s="157"/>
+      <c r="AE58" s="157"/>
+      <c r="AF58" s="157"/>
+      <c r="AG58" s="157"/>
+      <c r="AH58" s="157"/>
+      <c r="AI58" s="157"/>
+      <c r="AJ58" s="157"/>
+    </row>
+    <row r="59" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="157"/>
+      <c r="B59" s="157"/>
+      <c r="C59" s="157"/>
+      <c r="D59" s="160"/>
+      <c r="E59" s="157"/>
+      <c r="F59" s="157"/>
+      <c r="G59" s="157"/>
+      <c r="H59" s="157"/>
+      <c r="I59" s="157"/>
+      <c r="J59" s="160"/>
+      <c r="K59" s="157"/>
+      <c r="L59" s="157"/>
+      <c r="M59" s="157"/>
+      <c r="N59" s="157"/>
+      <c r="O59" s="157"/>
+      <c r="P59" s="157"/>
+      <c r="Q59" s="157"/>
+      <c r="R59" s="157"/>
+      <c r="S59" s="157"/>
+      <c r="T59" s="157"/>
+      <c r="U59" s="157"/>
+      <c r="V59" s="157"/>
+      <c r="W59" s="160"/>
+      <c r="X59" s="157"/>
+      <c r="Y59" s="157"/>
+      <c r="Z59" s="157"/>
+      <c r="AA59" s="157"/>
+      <c r="AB59" s="157"/>
+      <c r="AC59" s="160"/>
+      <c r="AD59" s="157"/>
+      <c r="AE59" s="157"/>
+      <c r="AF59" s="157"/>
+      <c r="AG59" s="157"/>
+      <c r="AH59" s="157"/>
+      <c r="AI59" s="157"/>
+      <c r="AJ59" s="157"/>
+    </row>
+    <row r="60" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="157"/>
+      <c r="B60" s="157"/>
+      <c r="C60" s="157"/>
+      <c r="D60" s="160"/>
+      <c r="E60" s="157"/>
+      <c r="F60" s="157"/>
+      <c r="G60" s="157"/>
+      <c r="H60" s="157"/>
+      <c r="I60" s="157"/>
+      <c r="J60" s="160"/>
+      <c r="K60" s="157"/>
+      <c r="L60" s="157"/>
+      <c r="M60" s="157"/>
+      <c r="N60" s="157"/>
+      <c r="O60" s="157"/>
+      <c r="P60" s="157"/>
+      <c r="Q60" s="157"/>
+      <c r="R60" s="157"/>
+      <c r="S60" s="157"/>
+      <c r="T60" s="157"/>
+      <c r="U60" s="157"/>
+      <c r="V60" s="157"/>
+      <c r="W60" s="160"/>
+      <c r="X60" s="157"/>
+      <c r="Y60" s="157"/>
+      <c r="Z60" s="157"/>
+      <c r="AA60" s="157"/>
+      <c r="AB60" s="157"/>
+      <c r="AC60" s="160"/>
+      <c r="AD60" s="157"/>
+      <c r="AE60" s="157"/>
+      <c r="AF60" s="157"/>
+      <c r="AG60" s="157"/>
+      <c r="AH60" s="157"/>
+      <c r="AI60" s="157"/>
+      <c r="AJ60" s="157"/>
+    </row>
+    <row r="61" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="157"/>
+      <c r="B61" s="157"/>
+      <c r="C61" s="157"/>
+      <c r="D61" s="157"/>
+      <c r="E61" s="157"/>
+      <c r="F61" s="157"/>
+      <c r="G61" s="157"/>
+      <c r="H61" s="157"/>
+      <c r="I61" s="157"/>
+      <c r="J61" s="157"/>
+      <c r="K61" s="157"/>
+      <c r="L61" s="157"/>
+      <c r="M61" s="157"/>
+      <c r="N61" s="157"/>
+      <c r="O61" s="157"/>
+      <c r="P61" s="157"/>
+      <c r="Q61" s="157"/>
+      <c r="R61" s="157"/>
+      <c r="S61" s="157"/>
+      <c r="T61" s="157"/>
+      <c r="U61" s="157"/>
+      <c r="V61" s="157"/>
+      <c r="W61" s="157"/>
+      <c r="X61" s="157"/>
+      <c r="Y61" s="157"/>
+      <c r="Z61" s="157"/>
+      <c r="AA61" s="157"/>
+      <c r="AB61" s="157"/>
+      <c r="AC61" s="157"/>
+      <c r="AD61" s="157"/>
+      <c r="AE61" s="157"/>
+      <c r="AF61" s="157"/>
+      <c r="AG61" s="157"/>
+      <c r="AH61" s="157"/>
+      <c r="AI61" s="157"/>
+      <c r="AJ61" s="157"/>
+    </row>
+    <row r="62" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="157"/>
+      <c r="B62" s="157"/>
+      <c r="C62" s="157"/>
+      <c r="D62" s="157"/>
+      <c r="E62" s="157"/>
+      <c r="F62" s="160"/>
+      <c r="G62" s="160"/>
+      <c r="H62" s="160"/>
+      <c r="I62" s="157"/>
+      <c r="J62" s="157"/>
+      <c r="K62" s="157"/>
+      <c r="L62" s="157"/>
+      <c r="M62" s="157"/>
+      <c r="N62" s="157"/>
+      <c r="O62" s="157"/>
+      <c r="P62" s="157"/>
+      <c r="Q62" s="157"/>
+      <c r="R62" s="157"/>
+      <c r="S62" s="157"/>
+      <c r="T62" s="157"/>
+      <c r="U62" s="157"/>
+      <c r="V62" s="157"/>
+      <c r="W62" s="157"/>
+      <c r="X62" s="157"/>
+      <c r="Y62" s="160"/>
+      <c r="Z62" s="160"/>
+      <c r="AA62" s="160"/>
+      <c r="AB62" s="157"/>
+      <c r="AC62" s="157"/>
+      <c r="AD62" s="157"/>
+      <c r="AE62" s="157"/>
+      <c r="AF62" s="157"/>
+      <c r="AG62" s="157"/>
+      <c r="AH62" s="157"/>
+      <c r="AI62" s="157"/>
+      <c r="AJ62" s="157"/>
+    </row>
+    <row r="63" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="157"/>
+      <c r="B63" s="157"/>
+      <c r="C63" s="157"/>
+      <c r="D63" s="157"/>
+      <c r="E63" s="157"/>
+      <c r="F63" s="157"/>
+      <c r="G63" s="157"/>
+      <c r="H63" s="157"/>
+      <c r="I63" s="157"/>
+      <c r="J63" s="157"/>
+      <c r="K63" s="157"/>
+      <c r="L63" s="157"/>
+      <c r="M63" s="157"/>
+      <c r="N63" s="157"/>
+      <c r="O63" s="157"/>
+      <c r="P63" s="157"/>
+      <c r="Q63" s="157"/>
+      <c r="R63" s="157"/>
+      <c r="S63" s="157"/>
+      <c r="T63" s="157"/>
+      <c r="U63" s="157"/>
+      <c r="V63" s="157"/>
+      <c r="W63" s="157"/>
+      <c r="X63" s="157"/>
+      <c r="Y63" s="157"/>
+      <c r="Z63" s="157"/>
+      <c r="AA63" s="157"/>
+      <c r="AB63" s="157"/>
+      <c r="AC63" s="157"/>
+      <c r="AD63" s="157"/>
+      <c r="AE63" s="157"/>
+      <c r="AF63" s="157"/>
+      <c r="AG63" s="157"/>
+      <c r="AH63" s="157"/>
+      <c r="AI63" s="157"/>
+      <c r="AJ63" s="157"/>
+    </row>
+    <row r="64" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="157"/>
+      <c r="B64" s="157"/>
+      <c r="C64" s="157"/>
+      <c r="D64" s="157"/>
+      <c r="E64" s="157"/>
+      <c r="F64" s="157"/>
+      <c r="G64" s="157"/>
+      <c r="H64" s="157"/>
+      <c r="I64" s="159"/>
+      <c r="J64" s="157"/>
+      <c r="K64" s="157"/>
+      <c r="L64" s="157"/>
+      <c r="M64" s="157"/>
+      <c r="N64" s="157"/>
+      <c r="O64" s="157"/>
+      <c r="P64" s="157"/>
+      <c r="Q64" s="157"/>
+      <c r="R64" s="157"/>
+      <c r="S64" s="157"/>
+      <c r="T64" s="157"/>
+      <c r="U64" s="157"/>
+      <c r="V64" s="157"/>
+      <c r="W64" s="157"/>
+      <c r="X64" s="157"/>
+      <c r="Y64" s="157"/>
+      <c r="Z64" s="157"/>
+      <c r="AA64" s="157"/>
+      <c r="AB64" s="159"/>
+      <c r="AC64" s="157"/>
+      <c r="AD64" s="157"/>
+      <c r="AE64" s="157"/>
+      <c r="AF64" s="157"/>
+      <c r="AG64" s="157"/>
+      <c r="AH64" s="157"/>
+      <c r="AI64" s="157"/>
+      <c r="AJ64" s="157"/>
+    </row>
+    <row r="65" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="157"/>
+      <c r="B65" s="157"/>
+      <c r="C65" s="157"/>
+      <c r="D65" s="157"/>
+      <c r="E65" s="157"/>
+      <c r="F65" s="159"/>
+      <c r="G65" s="157"/>
+      <c r="H65" s="157"/>
+      <c r="I65" s="157"/>
+      <c r="J65" s="157"/>
+      <c r="K65" s="157"/>
+      <c r="L65" s="157"/>
+      <c r="M65" s="157"/>
+      <c r="N65" s="157"/>
+      <c r="O65" s="157"/>
+      <c r="P65" s="157"/>
+      <c r="Q65" s="157"/>
+      <c r="R65" s="157"/>
+      <c r="S65" s="157"/>
+      <c r="T65" s="157"/>
+      <c r="U65" s="157"/>
+      <c r="V65" s="157"/>
+      <c r="W65" s="157"/>
+      <c r="X65" s="157"/>
+      <c r="Y65" s="157"/>
+      <c r="Z65" s="157"/>
+      <c r="AA65" s="157"/>
+      <c r="AB65" s="157"/>
+      <c r="AC65" s="157"/>
+      <c r="AD65" s="157"/>
+      <c r="AE65" s="157"/>
+      <c r="AF65" s="157"/>
+      <c r="AG65" s="157"/>
+      <c r="AH65" s="157"/>
+      <c r="AI65" s="157"/>
+      <c r="AJ65" s="157"/>
+    </row>
+    <row r="66" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="157"/>
+      <c r="B66" s="157"/>
+      <c r="C66" s="157"/>
+      <c r="D66" s="157"/>
+      <c r="E66" s="157"/>
+      <c r="F66" s="157"/>
+      <c r="G66" s="157"/>
+      <c r="H66" s="157"/>
+      <c r="I66" s="157"/>
+      <c r="J66" s="157"/>
+      <c r="K66" s="157"/>
+      <c r="L66" s="157"/>
+      <c r="M66" s="157"/>
+      <c r="N66" s="157"/>
+      <c r="O66" s="157"/>
+      <c r="P66" s="157"/>
+      <c r="Q66" s="157"/>
+      <c r="R66" s="157"/>
+      <c r="S66" s="157"/>
+      <c r="T66" s="157"/>
+      <c r="U66" s="157"/>
+      <c r="V66" s="157"/>
+      <c r="W66" s="157"/>
+      <c r="X66" s="157"/>
+      <c r="Y66" s="157"/>
+      <c r="Z66" s="157"/>
+      <c r="AA66" s="157"/>
+      <c r="AB66" s="157"/>
+      <c r="AC66" s="157"/>
+      <c r="AD66" s="157"/>
+      <c r="AE66" s="157"/>
+      <c r="AF66" s="157"/>
+      <c r="AG66" s="157"/>
+      <c r="AH66" s="157"/>
+      <c r="AI66" s="157"/>
+      <c r="AJ66" s="157"/>
+    </row>
+    <row r="67" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="157"/>
+      <c r="B67" s="157"/>
+      <c r="C67" s="157"/>
+      <c r="D67" s="157"/>
+      <c r="E67" s="157"/>
+      <c r="F67" s="157"/>
+      <c r="G67" s="157"/>
+      <c r="H67" s="157"/>
+      <c r="I67" s="157"/>
+      <c r="J67" s="157"/>
+      <c r="K67" s="157"/>
+      <c r="L67" s="157"/>
+      <c r="M67" s="157"/>
+      <c r="N67" s="157"/>
+      <c r="O67" s="157"/>
+      <c r="P67" s="157"/>
+      <c r="Q67" s="157"/>
+      <c r="R67" s="157"/>
+      <c r="S67" s="157"/>
+      <c r="T67" s="157"/>
+      <c r="U67" s="157"/>
+      <c r="V67" s="157"/>
+      <c r="W67" s="157"/>
+      <c r="X67" s="157"/>
+      <c r="Y67" s="157"/>
+      <c r="Z67" s="157"/>
+      <c r="AA67" s="157"/>
+      <c r="AB67" s="157"/>
+      <c r="AC67" s="157"/>
+      <c r="AD67" s="157"/>
+      <c r="AE67" s="157"/>
+      <c r="AF67" s="157"/>
+      <c r="AG67" s="157"/>
+      <c r="AH67" s="157"/>
+      <c r="AI67" s="157"/>
+      <c r="AJ67" s="157"/>
+    </row>
+    <row r="68" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="157"/>
+      <c r="B68" s="157"/>
+      <c r="C68" s="157"/>
+      <c r="D68" s="157"/>
+      <c r="E68" s="157"/>
+      <c r="F68" s="157"/>
+      <c r="G68" s="157"/>
+      <c r="H68" s="157"/>
+      <c r="I68" s="157"/>
+      <c r="J68" s="157"/>
+      <c r="K68" s="157"/>
+      <c r="L68" s="157"/>
+      <c r="M68" s="157"/>
+      <c r="N68" s="157"/>
+      <c r="O68" s="157"/>
+      <c r="P68" s="157"/>
+      <c r="Q68" s="157"/>
+      <c r="R68" s="157"/>
+      <c r="S68" s="157"/>
+      <c r="T68" s="157"/>
+      <c r="U68" s="157"/>
+      <c r="V68" s="157"/>
+      <c r="W68" s="157"/>
+      <c r="X68" s="157"/>
+      <c r="Y68" s="157"/>
+      <c r="Z68" s="157"/>
+      <c r="AA68" s="157"/>
+      <c r="AB68" s="157"/>
+      <c r="AC68" s="157"/>
+      <c r="AD68" s="157"/>
+      <c r="AE68" s="157"/>
+      <c r="AF68" s="157"/>
+      <c r="AG68" s="157"/>
+      <c r="AH68" s="157"/>
+      <c r="AI68" s="157"/>
+      <c r="AJ68" s="157"/>
+    </row>
+    <row r="69" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="157"/>
+      <c r="B69" s="157"/>
+      <c r="C69" s="157"/>
+      <c r="D69" s="157"/>
+      <c r="E69" s="157"/>
+      <c r="F69" s="157"/>
+      <c r="G69" s="157"/>
+      <c r="H69" s="157"/>
+      <c r="I69" s="157"/>
+      <c r="J69" s="157"/>
+      <c r="K69" s="157"/>
+      <c r="L69" s="157"/>
+      <c r="M69" s="157"/>
+      <c r="N69" s="157"/>
+      <c r="O69" s="157"/>
+      <c r="P69" s="157"/>
+      <c r="Q69" s="157"/>
+      <c r="R69" s="157"/>
+      <c r="S69" s="157"/>
+      <c r="T69" s="157"/>
+      <c r="U69" s="157"/>
+      <c r="V69" s="157"/>
+      <c r="W69" s="157"/>
+      <c r="X69" s="157"/>
+      <c r="Y69" s="157"/>
+      <c r="Z69" s="157"/>
+      <c r="AA69" s="157"/>
+      <c r="AB69" s="157"/>
+      <c r="AC69" s="157"/>
+      <c r="AD69" s="157"/>
+      <c r="AE69" s="157"/>
+      <c r="AF69" s="157"/>
+      <c r="AG69" s="157"/>
+      <c r="AH69" s="157"/>
+      <c r="AI69" s="157"/>
+      <c r="AJ69" s="157"/>
+    </row>
+    <row r="70" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="157"/>
+      <c r="B70" s="157"/>
+      <c r="C70" s="157"/>
+      <c r="D70" s="157"/>
+      <c r="E70" s="157"/>
+      <c r="F70" s="157"/>
+      <c r="G70" s="157"/>
+      <c r="H70" s="157"/>
+      <c r="I70" s="157"/>
+      <c r="J70" s="157"/>
+      <c r="K70" s="157"/>
+      <c r="L70" s="157"/>
+      <c r="M70" s="157"/>
+      <c r="N70" s="157"/>
+      <c r="O70" s="157"/>
+      <c r="P70" s="157"/>
+      <c r="Q70" s="157"/>
+      <c r="R70" s="157"/>
+      <c r="S70" s="157"/>
+      <c r="T70" s="157"/>
+      <c r="U70" s="157"/>
+      <c r="V70" s="157"/>
+      <c r="W70" s="157"/>
+      <c r="X70" s="157"/>
+      <c r="Y70" s="157"/>
+      <c r="Z70" s="157"/>
+      <c r="AA70" s="157"/>
+      <c r="AB70" s="157"/>
+      <c r="AC70" s="157"/>
+      <c r="AD70" s="157"/>
+      <c r="AE70" s="157"/>
+      <c r="AF70" s="157"/>
+      <c r="AG70" s="157"/>
+      <c r="AH70" s="157"/>
+      <c r="AI70" s="157"/>
+      <c r="AJ70" s="157"/>
+    </row>
+    <row r="71" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="157"/>
+      <c r="B71" s="157"/>
+      <c r="C71" s="157"/>
+      <c r="D71" s="157"/>
+      <c r="E71" s="157"/>
+      <c r="F71" s="157"/>
+      <c r="G71" s="157"/>
+      <c r="H71" s="157"/>
+      <c r="I71" s="157"/>
+      <c r="J71" s="157"/>
+      <c r="K71" s="157"/>
+      <c r="L71" s="157"/>
+      <c r="M71" s="157"/>
+      <c r="N71" s="157"/>
+      <c r="O71" s="157"/>
+      <c r="P71" s="157"/>
+      <c r="Q71" s="157"/>
+      <c r="R71" s="157"/>
+      <c r="S71" s="157"/>
+      <c r="T71" s="157"/>
+      <c r="U71" s="157"/>
+      <c r="V71" s="157"/>
+      <c r="W71" s="157"/>
+      <c r="X71" s="157"/>
+      <c r="Y71" s="157"/>
+      <c r="Z71" s="157"/>
+      <c r="AA71" s="157"/>
+      <c r="AB71" s="157"/>
+      <c r="AC71" s="157"/>
+      <c r="AD71" s="157"/>
+      <c r="AE71" s="157"/>
+      <c r="AF71" s="157"/>
+      <c r="AG71" s="157"/>
+      <c r="AH71" s="157"/>
+      <c r="AI71" s="157"/>
+      <c r="AJ71" s="157"/>
+    </row>
+    <row r="72" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="157"/>
+      <c r="B72" s="157"/>
+      <c r="C72" s="157"/>
+      <c r="D72" s="157"/>
+      <c r="E72" s="157"/>
+      <c r="F72" s="157"/>
+      <c r="G72" s="157"/>
+      <c r="H72" s="157"/>
+      <c r="I72" s="157"/>
+      <c r="J72" s="157"/>
+      <c r="K72" s="157"/>
+      <c r="L72" s="157"/>
+      <c r="M72" s="157"/>
+      <c r="N72" s="157"/>
+      <c r="O72" s="157"/>
+      <c r="P72" s="157"/>
+      <c r="Q72" s="157"/>
+      <c r="R72" s="157"/>
+      <c r="S72" s="157"/>
+      <c r="T72" s="157"/>
+      <c r="U72" s="157"/>
+      <c r="V72" s="157"/>
+      <c r="W72" s="157"/>
+      <c r="X72" s="157"/>
+      <c r="Y72" s="157"/>
+      <c r="Z72" s="157"/>
+      <c r="AA72" s="157"/>
+      <c r="AB72" s="157"/>
+      <c r="AC72" s="157"/>
+      <c r="AD72" s="157"/>
+      <c r="AE72" s="157"/>
+      <c r="AF72" s="157"/>
+      <c r="AG72" s="157"/>
+      <c r="AH72" s="157"/>
+      <c r="AI72" s="157"/>
+      <c r="AJ72" s="157"/>
+    </row>
+    <row r="73" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="157"/>
+      <c r="B73" s="157"/>
+      <c r="C73" s="157"/>
+      <c r="D73" s="157"/>
+      <c r="E73" s="157"/>
+      <c r="F73" s="157"/>
+      <c r="G73" s="157"/>
+      <c r="H73" s="157"/>
+      <c r="I73" s="157"/>
+      <c r="J73" s="157"/>
+      <c r="K73" s="157"/>
+      <c r="L73" s="157"/>
+      <c r="M73" s="157"/>
+      <c r="N73" s="157"/>
+      <c r="O73" s="157"/>
+      <c r="P73" s="157"/>
+      <c r="Q73" s="157"/>
+      <c r="R73" s="157"/>
+      <c r="S73" s="157"/>
+      <c r="T73" s="157"/>
+      <c r="U73" s="157"/>
+      <c r="V73" s="157"/>
+      <c r="W73" s="157"/>
+      <c r="X73" s="157"/>
+      <c r="Y73" s="157"/>
+      <c r="Z73" s="157"/>
+      <c r="AA73" s="157"/>
+      <c r="AB73" s="157"/>
+      <c r="AC73" s="157"/>
+      <c r="AD73" s="157"/>
+      <c r="AE73" s="157"/>
+      <c r="AF73" s="157"/>
+      <c r="AG73" s="157"/>
+      <c r="AH73" s="157"/>
+      <c r="AI73" s="157"/>
+      <c r="AJ73" s="157"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="F12:H14"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="F4:H6"/>
+    <mergeCell ref="B8:D10"/>
+    <mergeCell ref="F8:H10"/>
+    <mergeCell ref="J8:L10"/>
+    <mergeCell ref="N8:P10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>